--- a/Statistical analyses/Tukey posthoc/C_O_stretching/C_O_stretching, Vegetation, groups.xlsx
+++ b/Statistical analyses/Tukey posthoc/C_O_stretching/C_O_stretching, Vegetation, groups.xlsx
@@ -19,10 +19,10 @@
     <t>groups</t>
   </si>
   <si>
-    <t>Grassland</t>
+    <t>CSS</t>
   </si>
   <si>
-    <t>Shrub</t>
+    <t>Grassland</t>
   </si>
 </sst>
 </file>
